--- a/data/trans_camb/P17G_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P17G_R-Estudios-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>1.895981220665899</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2.545210519459529</v>
+        <v>2.545210519459506</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-0.01910427618920796</v>
@@ -655,7 +655,7 @@
         <v>-1.291427529508193</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-0.1866072528323937</v>
+        <v>-0.1866072528324048</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.1990027562142282</v>
@@ -664,7 +664,7 @@
         <v>-0.05846374519835607</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.8521194293599099</v>
+        <v>0.8521194293599321</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.570741163507144</v>
+        <v>-2.362004251113408</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.7812126234093808</v>
+        <v>-0.8181115559075149</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.1387097835985945</v>
+        <v>0.1150988060271199</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.825074650698086</v>
+        <v>-1.871669412776302</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.894827218115705</v>
+        <v>-3.853089023797143</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.147604503331707</v>
+        <v>-2.274842683282818</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.314582687470513</v>
+        <v>-1.325579061149348</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.983018180840593</v>
+        <v>-1.757134583970421</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.6777474534178118</v>
+        <v>-0.8700369293151375</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.170514342993201</v>
+        <v>3.335858199592084</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.607436920441505</v>
+        <v>4.442448405798173</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.153666536642048</v>
+        <v>5.030326097774374</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.796516402107361</v>
+        <v>1.749254906665541</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7782204161021898</v>
+        <v>0.9580258199569976</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.769546450988145</v>
+        <v>1.692713140146206</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.786013752823848</v>
+        <v>1.765727798343557</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.586598819619776</v>
+        <v>1.551236633057362</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.404642094723314</v>
+        <v>2.30162087198735</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.01974052662560479</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.02650015489579259</v>
+        <v>0.02650015489579236</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.0001950741183172752</v>
@@ -760,7 +760,7 @@
         <v>-0.01318679044389968</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.001905450117940179</v>
+        <v>-0.001905450117940292</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.002047320484763937</v>
@@ -769,7 +769,7 @@
         <v>-0.0006014691727774965</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.008766519601948951</v>
+        <v>0.00876651960194918</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.02656433639473373</v>
+        <v>-0.02416630226515217</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.007981966572875154</v>
+        <v>-0.008261421852392063</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.001183932319843366</v>
+        <v>0.00120614041672912</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.01851473377126509</v>
+        <v>-0.01885898702332688</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.03958937627535923</v>
+        <v>-0.03925855973609536</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.02156895938907618</v>
+        <v>-0.02318013167350895</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.01339455623856</v>
+        <v>-0.01353622736546803</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.02033530527127926</v>
+        <v>-0.01799978734369757</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.006882293727056418</v>
+        <v>-0.008847216757390884</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.0334869650204199</v>
+        <v>0.03518647271770689</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.04898297572893367</v>
+        <v>0.04685570559841751</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.0549352432754125</v>
+        <v>0.05348130494310245</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.01847520193089539</v>
+        <v>0.01800063602425929</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.008012809951730824</v>
+        <v>0.009815016508214983</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01825222281140761</v>
+        <v>0.01740484756452444</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01857774098424053</v>
+        <v>0.01840271180572171</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.01641817172963677</v>
+        <v>0.01599218850758258</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.02499564483313737</v>
+        <v>0.02398523170353681</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>1.848598664325263</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1.193539976079672</v>
+        <v>1.193539976079694</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>5.234383986893675</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.494660134126645</v>
+        <v>-1.50551333043552</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.612747874232694</v>
+        <v>-2.908415929400261</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.781654733252128</v>
+        <v>-4.280694044694771</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.369736091809641</v>
+        <v>2.135787200418981</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.7015715291373131</v>
+        <v>-0.8266692650072454</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-4.589216043883613</v>
+        <v>-4.529500870942718</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.430320502423809</v>
+        <v>1.664192585571141</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.2968386601147742</v>
+        <v>-0.4547611741409106</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-3.156178930617216</v>
+        <v>-3.285572763009736</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.529416173273233</v>
+        <v>8.41826218433974</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.680103480359513</v>
+        <v>6.854085726662196</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.121275672285724</v>
+        <v>6.186269463319398</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.651714452730994</v>
+        <v>8.569305746106803</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.196724353026568</v>
+        <v>6.088802655903002</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.742240275090583</v>
+        <v>2.723223037171554</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>7.011002301548847</v>
+        <v>7.062231700139557</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>5.093996804600152</v>
+        <v>4.753791829529272</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.959381058809462</v>
+        <v>2.82529839036581</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.02078204618133341</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.01341784097372418</v>
+        <v>0.01341784097372443</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.05694171019272002</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.01485574902124627</v>
+        <v>-0.01695701928246214</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.02838694779758929</v>
+        <v>-0.03202079035406334</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.04134870388545581</v>
+        <v>-0.0471804938810645</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.0255645035640674</v>
+        <v>0.02272577499240045</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.007533368137306995</v>
+        <v>-0.00859801925845511</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.04835917427942271</v>
+        <v>-0.04825235793129684</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01632077425299806</v>
+        <v>0.01802662605041434</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.003120619951040517</v>
+        <v>-0.005203275515486971</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.0343415623186875</v>
+        <v>-0.03577948390568537</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1007043663663754</v>
+        <v>0.09877879855880274</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.07792990206637793</v>
+        <v>0.08053917037896777</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.07123142222134793</v>
+        <v>0.07153221117612994</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.09821371035360572</v>
+        <v>0.09538830257404406</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.06914407740570568</v>
+        <v>0.06763571703974385</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03059977132738652</v>
+        <v>0.03013120625474036</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07907229096827838</v>
+        <v>0.08014202749822225</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.05765188816805685</v>
+        <v>0.05320588134156594</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.03317881547444949</v>
+        <v>0.03146447721249068</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>7.897073389701936</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7.669030298562696</v>
+        <v>7.669030298562685</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-1.174244501277277</v>
@@ -1083,7 +1083,7 @@
         <v>1.030955806981693</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-6.148802592872227</v>
+        <v>-6.148802592872215</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>3.745399555541928</v>
@@ -1092,7 +1092,7 @@
         <v>3.337813979559801</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-0.6421871461725792</v>
+        <v>-0.642187146172557</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.175167289547984</v>
+        <v>-1.837063947992615</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.98095655258066</v>
+        <v>-5.806893052564774</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-6.844907190821353</v>
+        <v>-4.675981858623316</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-11.51144271144259</v>
+        <v>-13.28576657952205</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-9.027999886448828</v>
+        <v>-8.288673863628278</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-15.38846755219529</v>
+        <v>-15.09450444135505</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-4.734905941370945</v>
+        <v>-4.759083088342146</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-4.416955851886733</v>
+        <v>-4.377241289420404</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-8.22585775427171</v>
+        <v>-8.0918649252189</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>27.12726553792629</v>
+        <v>26.52424535969274</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>22.55043800307487</v>
+        <v>21.80701064782713</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>20.50966988402101</v>
+        <v>21.42871716693289</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11.72303382009186</v>
+        <v>9.623191497040262</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>9.979706129989975</v>
+        <v>11.14075867838274</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.730603726844081</v>
+        <v>3.589459281057557</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>13.16526741638748</v>
+        <v>13.08809423648264</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>11.69686591891345</v>
+        <v>11.54900487178278</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>8.178778821610013</v>
+        <v>7.402126601005637</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.1115225745897282</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.1083021470482529</v>
+        <v>0.1083021470482527</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.01441612346607418</v>
@@ -1188,7 +1188,7 @@
         <v>0.01265697747389726</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.07548845002122077</v>
+        <v>-0.07548845002122065</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.04839696519228056</v>
@@ -1197,7 +1197,7 @@
         <v>0.04313026276409904</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.008298155777333961</v>
+        <v>-0.008298155777333675</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.0348841098467144</v>
+        <v>-0.02086589105364916</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.06496959159964924</v>
+        <v>-0.07442819186662263</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.08355700049408597</v>
+        <v>-0.05877896305559109</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1360391769157873</v>
+        <v>-0.1536186846423507</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1053934598829218</v>
+        <v>-0.09620923893264816</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1772632945426501</v>
+        <v>-0.1747825224434781</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.05669721121763875</v>
+        <v>-0.05952544381653446</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.05350361841493122</v>
+        <v>-0.05272823027069737</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.09921172009761314</v>
+        <v>-0.1002755581062553</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.4492867610245003</v>
+        <v>0.432515455140088</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3810754458651766</v>
+        <v>0.3644003223048696</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.3363743572603939</v>
+        <v>0.3566674069265138</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1546702810864076</v>
+        <v>0.1296076297843773</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1308206204877512</v>
+        <v>0.1472269823138943</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05162129574164673</v>
+        <v>0.04857452697217172</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1822276632483621</v>
+        <v>0.1769104508772023</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1619071483625524</v>
+        <v>0.166306847822142</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.1125397472400718</v>
+        <v>0.1024663658888551</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>0.6772247219407501</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-1.110013133989696</v>
+        <v>-1.110013133989673</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>2.12630521092686</v>
@@ -1306,7 +1306,7 @@
         <v>0.1699513872987279</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-2.834226183913169</v>
+        <v>-2.834226183913136</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.5985529948410026</v>
+        <v>-0.5309375749303861</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.454369479891511</v>
+        <v>-2.452401054204624</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.860445548069531</v>
+        <v>-4.507598094856656</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1126257333734248</v>
+        <v>0.2530121228921338</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.930323161194978</v>
+        <v>-2.058347866588676</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-6.196260697524883</v>
+        <v>-6.098764680210625</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.781852407239662</v>
+        <v>0.6971077700182312</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.45908750411241</v>
+        <v>-1.656455364257715</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-4.756679463003851</v>
+        <v>-4.754538903205486</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.352663377856925</v>
+        <v>5.818996558457673</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.6262391939434</v>
+        <v>3.812083516751837</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.99945516996085</v>
+        <v>2.403509603349454</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.08744967872307</v>
+        <v>4.130973029168048</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.147107754220596</v>
+        <v>2.202534556015189</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-1.753120694548793</v>
+        <v>-1.436803946089587</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.923930437236148</v>
+        <v>3.931281960149712</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.888992690909725</v>
+        <v>1.977998538210078</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-0.7243875394843753</v>
+        <v>-0.8762183401813108</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.007476436810081324</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.01225434155866561</v>
+        <v>-0.01225434155866536</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.02267055880903916</v>
@@ -1411,7 +1411,7 @@
         <v>0.001836198844266738</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.03062171439733131</v>
+        <v>-0.03062171439733096</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.006119658775927528</v>
+        <v>-0.005699298800058526</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.02668800232888475</v>
+        <v>-0.02648060840155599</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.05250834894091595</v>
+        <v>-0.0486734922035883</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.001526011866111828</v>
+        <v>0.002846857034926904</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.02047455492779169</v>
+        <v>-0.02178143716488085</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.06551325939902664</v>
+        <v>-0.06473164063467317</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.008246781514384446</v>
+        <v>0.007657612691950515</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.01573598014625338</v>
+        <v>-0.01764600996767937</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.05072187343432254</v>
+        <v>-0.05111509390825338</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.06034758674397802</v>
+        <v>0.06562121809556114</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.04095776220031098</v>
+        <v>0.04293288434994734</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.02224811426568646</v>
+        <v>0.02706830102140706</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.04418073267640469</v>
+        <v>0.04488259631816603</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.02294262467908397</v>
+        <v>0.02379655661502801</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.01881165112009207</v>
+        <v>-0.01556931161207876</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.04299211496936071</v>
+        <v>0.04313148600134688</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.02054805445338434</v>
+        <v>0.0215624454563556</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.007919700999756333</v>
+        <v>-0.009463574908457301</v>
       </c>
     </row>
     <row r="28">
